--- a/data/pca/factorExposure/factorExposure_2009-07-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01666796038582909</v>
+        <v>0.01638688539011848</v>
       </c>
       <c r="C2">
-        <v>-0.001425123523817712</v>
+        <v>-0.0009197510278274816</v>
       </c>
       <c r="D2">
-        <v>-0.007526482930873077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009412910137705007</v>
+      </c>
+      <c r="E2">
+        <v>-0.001283936330140097</v>
+      </c>
+      <c r="F2">
+        <v>0.0121659266027592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09059439861620021</v>
+        <v>0.09156331754345579</v>
       </c>
       <c r="C4">
-        <v>-0.01958658819645485</v>
+        <v>-0.01464217435581062</v>
       </c>
       <c r="D4">
-        <v>-0.07399646866927313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08301224805546455</v>
+      </c>
+      <c r="E4">
+        <v>-0.02836640521158307</v>
+      </c>
+      <c r="F4">
+        <v>-0.03159583523119502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1533885730493501</v>
+        <v>0.1613177605057315</v>
       </c>
       <c r="C6">
-        <v>-0.02931661183225245</v>
+        <v>-0.02826269376347066</v>
       </c>
       <c r="D6">
-        <v>0.03450561554170752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02677183440335199</v>
+      </c>
+      <c r="E6">
+        <v>-0.009093034514548534</v>
+      </c>
+      <c r="F6">
+        <v>-0.04134618540083339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06116070789565078</v>
+        <v>0.06251259110455704</v>
       </c>
       <c r="C7">
-        <v>-0.001917950450903343</v>
+        <v>0.001607472109946779</v>
       </c>
       <c r="D7">
-        <v>-0.04756204808301821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05243776457124855</v>
+      </c>
+      <c r="E7">
+        <v>-0.01302192586908162</v>
+      </c>
+      <c r="F7">
+        <v>-0.04900143401618966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06204917490267323</v>
+        <v>0.0576252529451358</v>
       </c>
       <c r="C8">
-        <v>0.0107492070569052</v>
+        <v>0.01246339108074862</v>
       </c>
       <c r="D8">
-        <v>-0.026655070891643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03054251330336112</v>
+      </c>
+      <c r="E8">
+        <v>-0.01698470240786582</v>
+      </c>
+      <c r="F8">
+        <v>0.02606799640131932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06987712409232934</v>
+        <v>0.0708999312234872</v>
       </c>
       <c r="C9">
-        <v>-0.01599728329948519</v>
+        <v>-0.01031034715627393</v>
       </c>
       <c r="D9">
-        <v>-0.07626362776443892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0862238251875343</v>
+      </c>
+      <c r="E9">
+        <v>-0.02489498337540477</v>
+      </c>
+      <c r="F9">
+        <v>-0.0482538963988456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08533427762136298</v>
+        <v>0.08832332682842389</v>
       </c>
       <c r="C10">
-        <v>-0.01473203634185144</v>
+        <v>-0.02149548192790174</v>
       </c>
       <c r="D10">
-        <v>0.1653423296949524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1602355480711192</v>
+      </c>
+      <c r="E10">
+        <v>0.03277157817410499</v>
+      </c>
+      <c r="F10">
+        <v>0.05778865086945197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09087199526950474</v>
+        <v>0.0877564351213075</v>
       </c>
       <c r="C11">
-        <v>-0.0170259202035637</v>
+        <v>-0.01120134936619899</v>
       </c>
       <c r="D11">
-        <v>-0.1076159760022746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1176312128559558</v>
+      </c>
+      <c r="E11">
+        <v>-0.04769012723575716</v>
+      </c>
+      <c r="F11">
+        <v>-0.02351720233380449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09517318662105129</v>
+        <v>0.09002397702945523</v>
       </c>
       <c r="C12">
-        <v>-0.01447560745424191</v>
+        <v>-0.008238811133175714</v>
       </c>
       <c r="D12">
-        <v>-0.1136500583098717</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.131958632276102</v>
+      </c>
+      <c r="E12">
+        <v>-0.04660778871004948</v>
+      </c>
+      <c r="F12">
+        <v>-0.02990662191215786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04390812781041046</v>
+        <v>0.04389774506693319</v>
       </c>
       <c r="C13">
-        <v>-0.005647575962210486</v>
+        <v>-0.002412654811565162</v>
       </c>
       <c r="D13">
-        <v>-0.03781640301993911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0535415232589653</v>
+      </c>
+      <c r="E13">
+        <v>0.0004227997672447185</v>
+      </c>
+      <c r="F13">
+        <v>-0.003510840820277888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01843522255705553</v>
+        <v>0.02336528135309433</v>
       </c>
       <c r="C14">
-        <v>-0.01477524316731586</v>
+        <v>-0.01362133352469348</v>
       </c>
       <c r="D14">
-        <v>-0.02921075647078974</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03317114621026637</v>
+      </c>
+      <c r="E14">
+        <v>-0.0183168253230721</v>
+      </c>
+      <c r="F14">
+        <v>-0.01310965302847528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03291032014537006</v>
+        <v>0.03347616176968841</v>
       </c>
       <c r="C15">
-        <v>-0.007174399681813707</v>
+        <v>-0.005195221786252134</v>
       </c>
       <c r="D15">
-        <v>-0.04124786054711105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04644442803560799</v>
+      </c>
+      <c r="E15">
+        <v>-0.007712958436071039</v>
+      </c>
+      <c r="F15">
+        <v>-0.02938557202302741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07459267074177535</v>
+        <v>0.07275488498091902</v>
       </c>
       <c r="C16">
-        <v>-0.007213811711988112</v>
+        <v>-0.001450545099793808</v>
       </c>
       <c r="D16">
-        <v>-0.1112864880277033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1282450665175972</v>
+      </c>
+      <c r="E16">
+        <v>-0.06177413362191991</v>
+      </c>
+      <c r="F16">
+        <v>-0.02628112722719881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0001447610349891126</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002995584099320831</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001493352785212585</v>
+      </c>
+      <c r="E17">
+        <v>-0.001138580362420952</v>
+      </c>
+      <c r="F17">
+        <v>0.002472605420961661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01909851586663458</v>
+        <v>0.04023962941328425</v>
       </c>
       <c r="C18">
-        <v>0.003053912852341879</v>
+        <v>0.002938083876774758</v>
       </c>
       <c r="D18">
-        <v>-0.02435532939673522</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0158249578389663</v>
+      </c>
+      <c r="E18">
+        <v>0.007144157841299625</v>
+      </c>
+      <c r="F18">
+        <v>0.009479632892526593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0632255211450794</v>
+        <v>0.06223259142112293</v>
       </c>
       <c r="C20">
-        <v>-0.005369734951111819</v>
+        <v>-0.0008650682417671337</v>
       </c>
       <c r="D20">
-        <v>-0.06784362261231103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07851686060413672</v>
+      </c>
+      <c r="E20">
+        <v>-0.05722840518581114</v>
+      </c>
+      <c r="F20">
+        <v>-0.02903092753855455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03700912745535383</v>
+        <v>0.04025963565337216</v>
       </c>
       <c r="C21">
-        <v>-0.009255056222242063</v>
+        <v>-0.006326122975838014</v>
       </c>
       <c r="D21">
-        <v>-0.03568370648741417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03728570107018675</v>
+      </c>
+      <c r="E21">
+        <v>0.001470144220082651</v>
+      </c>
+      <c r="F21">
+        <v>0.02645391991279792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04163876943206198</v>
+        <v>0.04508790215240923</v>
       </c>
       <c r="C22">
-        <v>-0.0020783773304228</v>
+        <v>-0.0008777526047518101</v>
       </c>
       <c r="D22">
-        <v>0.003122381364135352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006063234790195022</v>
+      </c>
+      <c r="E22">
+        <v>-0.03634769598517109</v>
+      </c>
+      <c r="F22">
+        <v>0.0499740030537688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04160154768644694</v>
+        <v>0.04506390765056197</v>
       </c>
       <c r="C23">
-        <v>-0.002067907688706576</v>
+        <v>-0.0008687492698981223</v>
       </c>
       <c r="D23">
-        <v>0.003100148510084226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006077689403558741</v>
+      </c>
+      <c r="E23">
+        <v>-0.03653072876107629</v>
+      </c>
+      <c r="F23">
+        <v>0.04994676636188758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08169810287653809</v>
+        <v>0.07863399608186142</v>
       </c>
       <c r="C24">
-        <v>-0.007708025268317916</v>
+        <v>-0.002158501752718543</v>
       </c>
       <c r="D24">
-        <v>-0.1119783247190292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1205558748175587</v>
+      </c>
+      <c r="E24">
+        <v>-0.04958489405922248</v>
+      </c>
+      <c r="F24">
+        <v>-0.02872296124187675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08709243925943765</v>
+        <v>0.08364938525643252</v>
       </c>
       <c r="C25">
-        <v>-0.01042841086179591</v>
+        <v>-0.004851317675363562</v>
       </c>
       <c r="D25">
-        <v>-0.098246447086143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1097119912458166</v>
+      </c>
+      <c r="E25">
+        <v>-0.0328145173337438</v>
+      </c>
+      <c r="F25">
+        <v>-0.02642685141855032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05781753961136709</v>
+        <v>0.05985121925616611</v>
       </c>
       <c r="C26">
-        <v>-0.01724467175471736</v>
+        <v>-0.01454971926515366</v>
       </c>
       <c r="D26">
-        <v>-0.02597092411525759</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04324709181122055</v>
+      </c>
+      <c r="E26">
+        <v>-0.02972700029861254</v>
+      </c>
+      <c r="F26">
+        <v>0.008772827088901116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1340431520969204</v>
+        <v>0.1418938411680499</v>
       </c>
       <c r="C28">
-        <v>-0.0139202493214915</v>
+        <v>-0.02310821468422626</v>
       </c>
       <c r="D28">
-        <v>0.2683721362046044</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.261024246624986</v>
+      </c>
+      <c r="E28">
+        <v>0.06870285429990493</v>
+      </c>
+      <c r="F28">
+        <v>-0.004772145795112297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02506592290869952</v>
+        <v>0.02860533094044786</v>
       </c>
       <c r="C29">
-        <v>-0.009461843607987616</v>
+        <v>-0.008758411555525845</v>
       </c>
       <c r="D29">
-        <v>-0.02756640296366222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03096438422639202</v>
+      </c>
+      <c r="E29">
+        <v>-0.01313959031619132</v>
+      </c>
+      <c r="F29">
+        <v>0.01282389426476571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06231279471961805</v>
+        <v>0.05898090898330408</v>
       </c>
       <c r="C30">
-        <v>-0.009069328130764363</v>
+        <v>-0.002580726305946063</v>
       </c>
       <c r="D30">
-        <v>-0.07422740281580487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08699500291237267</v>
+      </c>
+      <c r="E30">
+        <v>-0.0137093771398282</v>
+      </c>
+      <c r="F30">
+        <v>-0.07845766846468624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05013556477562058</v>
+        <v>0.05130672507160641</v>
       </c>
       <c r="C31">
-        <v>-0.01709030087196028</v>
+        <v>-0.01609123865327467</v>
       </c>
       <c r="D31">
-        <v>-0.02313498406417098</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02494046073065664</v>
+      </c>
+      <c r="E31">
+        <v>-0.029026275068216</v>
+      </c>
+      <c r="F31">
+        <v>0.000457677514150236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04693865279244942</v>
+        <v>0.05129156540437929</v>
       </c>
       <c r="C32">
-        <v>-0.002157623493920224</v>
+        <v>0.0016049467982961</v>
       </c>
       <c r="D32">
-        <v>-0.02427943961209211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03447384505516855</v>
+      </c>
+      <c r="E32">
+        <v>-0.03256710085620892</v>
+      </c>
+      <c r="F32">
+        <v>-0.003137198893189766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09046121510035061</v>
+        <v>0.08944818927705019</v>
       </c>
       <c r="C33">
-        <v>-0.01316115831351771</v>
+        <v>-0.006885684405869029</v>
       </c>
       <c r="D33">
-        <v>-0.08680117545139983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1034327566624833</v>
+      </c>
+      <c r="E33">
+        <v>-0.04662342611214287</v>
+      </c>
+      <c r="F33">
+        <v>-0.04282069117127722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0687124560819817</v>
+        <v>0.06734178274516384</v>
       </c>
       <c r="C34">
-        <v>-0.01523102964304376</v>
+        <v>-0.01034447081187769</v>
       </c>
       <c r="D34">
-        <v>-0.09235609784713683</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093819403991702</v>
+      </c>
+      <c r="E34">
+        <v>-0.03580097032970505</v>
+      </c>
+      <c r="F34">
+        <v>-0.03389596102574548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02474131838162269</v>
+        <v>0.02656529425931734</v>
       </c>
       <c r="C35">
-        <v>-0.003412871157008882</v>
+        <v>-0.0030762345875273</v>
       </c>
       <c r="D35">
-        <v>-0.006480909373684937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01245038279494088</v>
+      </c>
+      <c r="E35">
+        <v>-0.01327803710879728</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004926080258481337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.025639808930878</v>
+        <v>0.0279027413329926</v>
       </c>
       <c r="C36">
-        <v>-0.007599137820526691</v>
+        <v>-0.006921767208340698</v>
       </c>
       <c r="D36">
-        <v>-0.03912263389736907</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03913868851169346</v>
+      </c>
+      <c r="E36">
+        <v>-0.01705758948597319</v>
+      </c>
+      <c r="F36">
+        <v>-0.01362891534495889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001325068145193943</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.000745284935371391</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002673566668601871</v>
+      </c>
+      <c r="E37">
+        <v>-0.0002177605761691585</v>
+      </c>
+      <c r="F37">
+        <v>0.001873647546732563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1123705582702386</v>
+        <v>0.101408915701608</v>
       </c>
       <c r="C39">
-        <v>-0.02311623966755691</v>
+        <v>-0.01610198530799672</v>
       </c>
       <c r="D39">
-        <v>-0.1469916871256917</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1510222131022924</v>
+      </c>
+      <c r="E39">
+        <v>-0.05946638549334063</v>
+      </c>
+      <c r="F39">
+        <v>-0.02146457533724486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03868940442325278</v>
+        <v>0.04389562753005383</v>
       </c>
       <c r="C40">
-        <v>-0.009301750453510414</v>
+        <v>-0.007683446110862631</v>
       </c>
       <c r="D40">
-        <v>-0.02034721392033811</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03291438734781365</v>
+      </c>
+      <c r="E40">
+        <v>-0.002641437630465909</v>
+      </c>
+      <c r="F40">
+        <v>0.01707519906914605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02538436718866677</v>
+        <v>0.02760841923023109</v>
       </c>
       <c r="C41">
-        <v>-0.007361021068196698</v>
+        <v>-0.006947279788723485</v>
       </c>
       <c r="D41">
-        <v>-0.009469769756550301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01064098555224616</v>
+      </c>
+      <c r="E41">
+        <v>-0.01219310020623365</v>
+      </c>
+      <c r="F41">
+        <v>0.00749316393044673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04223574486961687</v>
+        <v>0.04037479821480988</v>
       </c>
       <c r="C43">
-        <v>-0.008208599058637562</v>
+        <v>-0.007725089318118337</v>
       </c>
       <c r="D43">
-        <v>-0.01722944582365625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01953913112584921</v>
+      </c>
+      <c r="E43">
+        <v>-0.02578039293090607</v>
+      </c>
+      <c r="F43">
+        <v>0.01616912601486717</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0694257412492596</v>
+        <v>0.07865914041010695</v>
       </c>
       <c r="C44">
-        <v>-0.02461051539137601</v>
+        <v>-0.01947918185993176</v>
       </c>
       <c r="D44">
-        <v>-0.09526604820744165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09600671120900886</v>
+      </c>
+      <c r="E44">
+        <v>-0.06192796025822392</v>
+      </c>
+      <c r="F44">
+        <v>-0.1676834694876916</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02131812672307245</v>
+        <v>0.02449422344703489</v>
       </c>
       <c r="C46">
-        <v>-0.004149727376289272</v>
+        <v>-0.003694925841033013</v>
       </c>
       <c r="D46">
-        <v>-0.007565821130366441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01309344020938986</v>
+      </c>
+      <c r="E46">
+        <v>-0.02722605920746854</v>
+      </c>
+      <c r="F46">
+        <v>0.005418666960048901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05214165469398908</v>
+        <v>0.05177147384514445</v>
       </c>
       <c r="C47">
-        <v>-0.004937254152769895</v>
+        <v>-0.004294148236411763</v>
       </c>
       <c r="D47">
-        <v>-0.008214286129525255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01083027349917738</v>
+      </c>
+      <c r="E47">
+        <v>-0.02271441410816213</v>
+      </c>
+      <c r="F47">
+        <v>0.03229965224352749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04786017723912598</v>
+        <v>0.05088305365223728</v>
       </c>
       <c r="C48">
-        <v>-0.004626407682549113</v>
+        <v>-0.002242877274873403</v>
       </c>
       <c r="D48">
-        <v>-0.04448716912071347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04994467182414456</v>
+      </c>
+      <c r="E48">
+        <v>0.004835586391750736</v>
+      </c>
+      <c r="F48">
+        <v>-0.01220409989970525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2012270332657222</v>
+        <v>0.2001922875759691</v>
       </c>
       <c r="C49">
-        <v>-0.0223352038997997</v>
+        <v>-0.02014131771099191</v>
       </c>
       <c r="D49">
-        <v>0.01176082280580584</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005119201848586588</v>
+      </c>
+      <c r="E49">
+        <v>-0.03184909222341334</v>
+      </c>
+      <c r="F49">
+        <v>-0.04792361541846545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04960039138327622</v>
+        <v>0.0517104522001417</v>
       </c>
       <c r="C50">
-        <v>-0.01310776416553943</v>
+        <v>-0.01178901776604388</v>
       </c>
       <c r="D50">
-        <v>-0.02248312583131999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02340428066339734</v>
+      </c>
+      <c r="E50">
+        <v>-0.03018944008030056</v>
+      </c>
+      <c r="F50">
+        <v>-0.01004609957677654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558758210682931</v>
+        <v>0.1495603016557284</v>
       </c>
       <c r="C52">
-        <v>-0.02087456136681451</v>
+        <v>-0.01879056661158498</v>
       </c>
       <c r="D52">
-        <v>-0.04617220818613318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04263728475674881</v>
+      </c>
+      <c r="E52">
+        <v>-0.02320168587016305</v>
+      </c>
+      <c r="F52">
+        <v>-0.04349367651091852</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1744992214606115</v>
+        <v>0.1696229723356485</v>
       </c>
       <c r="C53">
-        <v>-0.02128320296860912</v>
+        <v>-0.02160585625616424</v>
       </c>
       <c r="D53">
-        <v>-0.010725835991972</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005958833270502321</v>
+      </c>
+      <c r="E53">
+        <v>-0.03071540657302688</v>
+      </c>
+      <c r="F53">
+        <v>-0.07595995825096667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01617952406867625</v>
+        <v>0.01913134398653827</v>
       </c>
       <c r="C54">
-        <v>-0.01212977251482223</v>
+        <v>-0.01084047105313819</v>
       </c>
       <c r="D54">
-        <v>-0.02794891824676685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03381736075974795</v>
+      </c>
+      <c r="E54">
+        <v>-0.02135392854214486</v>
+      </c>
+      <c r="F54">
+        <v>0.0022998813594406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1174125630391383</v>
+        <v>0.1161420304073811</v>
       </c>
       <c r="C55">
-        <v>-0.01881705354050801</v>
+        <v>-0.01880809344445852</v>
       </c>
       <c r="D55">
-        <v>-0.009349481983352439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008946408814212036</v>
+      </c>
+      <c r="E55">
+        <v>-0.02626530219671372</v>
+      </c>
+      <c r="F55">
+        <v>-0.04772126720471514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805004946335698</v>
+        <v>0.1758470415237462</v>
       </c>
       <c r="C56">
-        <v>-0.019248705847651</v>
+        <v>-0.019574043157124</v>
       </c>
       <c r="D56">
-        <v>-0.001200343440165058</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002384132143033194</v>
+      </c>
+      <c r="E56">
+        <v>-0.03299066524529879</v>
+      </c>
+      <c r="F56">
+        <v>-0.05540153862981403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04878173799748951</v>
+        <v>0.04624880091159151</v>
       </c>
       <c r="C58">
-        <v>-0.00559948765676439</v>
+        <v>-0.0001172270583589863</v>
       </c>
       <c r="D58">
-        <v>-0.06325775468178142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07605106457852816</v>
+      </c>
+      <c r="E58">
+        <v>-0.03608982723624441</v>
+      </c>
+      <c r="F58">
+        <v>0.03689662624455316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1624545120642739</v>
+        <v>0.1667838766253135</v>
       </c>
       <c r="C59">
-        <v>-0.01567547157915229</v>
+        <v>-0.02341030108184207</v>
       </c>
       <c r="D59">
-        <v>0.2240922567737042</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2183203619429812</v>
+      </c>
+      <c r="E59">
+        <v>0.04957792397114211</v>
+      </c>
+      <c r="F59">
+        <v>0.03874080586788026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2380521082043162</v>
+        <v>0.2300754959773671</v>
       </c>
       <c r="C60">
-        <v>-0.002801935774691429</v>
+        <v>0.0003663810216385078</v>
       </c>
       <c r="D60">
-        <v>-0.04182894939778401</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03879436447012433</v>
+      </c>
+      <c r="E60">
+        <v>-0.005099286689549608</v>
+      </c>
+      <c r="F60">
+        <v>-0.004976946600058967</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08353669189668905</v>
+        <v>0.07720780671122593</v>
       </c>
       <c r="C61">
-        <v>-0.01697252969147668</v>
+        <v>-0.01140921533338739</v>
       </c>
       <c r="D61">
-        <v>-0.1061249622799113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.116130955530295</v>
+      </c>
+      <c r="E61">
+        <v>-0.0381735931911797</v>
+      </c>
+      <c r="F61">
+        <v>-0.007927164635048571</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1722896013037619</v>
+        <v>0.1694379115761769</v>
       </c>
       <c r="C62">
-        <v>-0.023272898361409</v>
+        <v>-0.02246671199126106</v>
       </c>
       <c r="D62">
-        <v>-0.00110005731805065</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005804515330231932</v>
+      </c>
+      <c r="E62">
+        <v>-0.0340813932382873</v>
+      </c>
+      <c r="F62">
+        <v>-0.0415302145765716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04216036371868451</v>
+        <v>0.04576825939374343</v>
       </c>
       <c r="C63">
-        <v>-0.005553975297646006</v>
+        <v>-0.001796509192867646</v>
       </c>
       <c r="D63">
-        <v>-0.04716815710957787</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06039801678476052</v>
+      </c>
+      <c r="E63">
+        <v>-0.02474071782700659</v>
+      </c>
+      <c r="F63">
+        <v>-0.0009429096650474852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1129636421423879</v>
+        <v>0.1107745879167498</v>
       </c>
       <c r="C64">
-        <v>-0.01573588373772447</v>
+        <v>-0.01256192184422666</v>
       </c>
       <c r="D64">
-        <v>-0.03095796611747733</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04228525729102853</v>
+      </c>
+      <c r="E64">
+        <v>-0.02326836610250193</v>
+      </c>
+      <c r="F64">
+        <v>-0.02541197351510199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1440259755950578</v>
+        <v>0.1520283551078708</v>
       </c>
       <c r="C65">
-        <v>-0.03537862905789688</v>
+        <v>-0.03538554332224431</v>
       </c>
       <c r="D65">
-        <v>0.05898983930892506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04720530716102776</v>
+      </c>
+      <c r="E65">
+        <v>-0.005591350445154792</v>
+      </c>
+      <c r="F65">
+        <v>-0.03794053021541734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1355362506938233</v>
+        <v>0.1219230899298155</v>
       </c>
       <c r="C66">
-        <v>-0.02163469420203819</v>
+        <v>-0.01448553274270213</v>
       </c>
       <c r="D66">
-        <v>-0.1267472807197363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1390090410914513</v>
+      </c>
+      <c r="E66">
+        <v>-0.06407420002208475</v>
+      </c>
+      <c r="F66">
+        <v>-0.02709780570103306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06292226524590816</v>
+        <v>0.05590971179478181</v>
       </c>
       <c r="C67">
-        <v>-0.005810440266306654</v>
+        <v>-0.003280050307624067</v>
       </c>
       <c r="D67">
-        <v>-0.05486459281921192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05704487066028274</v>
+      </c>
+      <c r="E67">
+        <v>-0.01793767085115816</v>
+      </c>
+      <c r="F67">
+        <v>0.034317663196759</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.107403200787882</v>
+        <v>0.1167836619404389</v>
       </c>
       <c r="C68">
-        <v>-0.02394911254088882</v>
+        <v>-0.03395215754858805</v>
       </c>
       <c r="D68">
-        <v>0.2656258688238464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611942685613307</v>
+      </c>
+      <c r="E68">
+        <v>0.08837511740872786</v>
+      </c>
+      <c r="F68">
+        <v>-0.000479231276218274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03954675590551054</v>
+        <v>0.03857342023467093</v>
       </c>
       <c r="C69">
-        <v>-0.002140270495750965</v>
+        <v>-0.001323790300189876</v>
       </c>
       <c r="D69">
-        <v>-0.006154738090837582</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008211704521343236</v>
+      </c>
+      <c r="E69">
+        <v>-0.02394107735817592</v>
+      </c>
+      <c r="F69">
+        <v>0.001109362906404109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06556187852305978</v>
+        <v>0.06717518901342998</v>
       </c>
       <c r="C70">
-        <v>0.02457545963175233</v>
+        <v>0.02687538456862385</v>
       </c>
       <c r="D70">
-        <v>-0.003501331043897595</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02558177755005909</v>
+      </c>
+      <c r="E70">
+        <v>0.03120286518202034</v>
+      </c>
+      <c r="F70">
+        <v>0.1809493994293487</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1258213735201307</v>
+        <v>0.1366864993812358</v>
       </c>
       <c r="C71">
-        <v>-0.02822388378022742</v>
+        <v>-0.03853845872954297</v>
       </c>
       <c r="D71">
-        <v>0.2826735431077087</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2713764051083472</v>
+      </c>
+      <c r="E71">
+        <v>0.09806782436668174</v>
+      </c>
+      <c r="F71">
+        <v>-0.00624229369081581</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1386787942284722</v>
+        <v>0.1445063493350926</v>
       </c>
       <c r="C72">
-        <v>-0.02839639660114606</v>
+        <v>-0.02824113950124204</v>
       </c>
       <c r="D72">
-        <v>-0.003452345996393767</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004070476048677847</v>
+      </c>
+      <c r="E72">
+        <v>-0.03787073092068137</v>
+      </c>
+      <c r="F72">
+        <v>-0.02816641069359318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.205442507740768</v>
+        <v>0.2041776525689402</v>
       </c>
       <c r="C73">
-        <v>-0.0175178338212399</v>
+        <v>-0.01360945269594741</v>
       </c>
       <c r="D73">
-        <v>-0.01129496363591826</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01821728942065434</v>
+      </c>
+      <c r="E73">
+        <v>-0.06685517158667316</v>
+      </c>
+      <c r="F73">
+        <v>-0.04134919305678543</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09329999584114229</v>
+        <v>0.09472617432393575</v>
       </c>
       <c r="C74">
-        <v>-0.0147172963478026</v>
+        <v>-0.01415917887403026</v>
       </c>
       <c r="D74">
-        <v>-0.01716779822532457</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01725024267642482</v>
+      </c>
+      <c r="E74">
+        <v>-0.04486062690396274</v>
+      </c>
+      <c r="F74">
+        <v>-0.05278244188178761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1342413395563703</v>
+        <v>0.1267067711456946</v>
       </c>
       <c r="C75">
-        <v>-0.03121603139569084</v>
+        <v>-0.0296315448792874</v>
       </c>
       <c r="D75">
-        <v>-0.02750833902136856</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02941271046096906</v>
+      </c>
+      <c r="E75">
+        <v>-0.05742430827021702</v>
+      </c>
+      <c r="F75">
+        <v>-0.02130584330514966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08204584162139564</v>
+        <v>0.09043885128161916</v>
       </c>
       <c r="C77">
-        <v>-0.01456246594633067</v>
+        <v>-0.008548282277015684</v>
       </c>
       <c r="D77">
-        <v>-0.10241133513512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1145512645845129</v>
+      </c>
+      <c r="E77">
+        <v>-0.04517233874372668</v>
+      </c>
+      <c r="F77">
+        <v>-0.03305468013406294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09950891162192151</v>
+        <v>0.1010435808464452</v>
       </c>
       <c r="C78">
-        <v>-0.04411991311192779</v>
+        <v>-0.03896683822864482</v>
       </c>
       <c r="D78">
-        <v>-0.1097201349422322</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1115925480384704</v>
+      </c>
+      <c r="E78">
+        <v>-0.07645266431612886</v>
+      </c>
+      <c r="F78">
+        <v>-0.05211063605030803</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1650362880280034</v>
+        <v>0.1630829782075051</v>
       </c>
       <c r="C79">
-        <v>-0.02585234352546487</v>
+        <v>-0.0246285599336669</v>
       </c>
       <c r="D79">
-        <v>-0.01041905389825783</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01314203892051041</v>
+      </c>
+      <c r="E79">
+        <v>-0.04441741691138784</v>
+      </c>
+      <c r="F79">
+        <v>-0.01336493232919349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08073475404562178</v>
+        <v>0.07967688416101633</v>
       </c>
       <c r="C80">
-        <v>-0.001223366417497917</v>
+        <v>0.0005753958862611426</v>
       </c>
       <c r="D80">
-        <v>-0.05168227359832797</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05402995759144172</v>
+      </c>
+      <c r="E80">
+        <v>-0.03275489795770859</v>
+      </c>
+      <c r="F80">
+        <v>0.0254373211945917</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1205326828578682</v>
+        <v>0.1170550329383728</v>
       </c>
       <c r="C81">
-        <v>-0.03313846546921694</v>
+        <v>-0.03305217555080044</v>
       </c>
       <c r="D81">
-        <v>-0.01962079264679122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01441821425416311</v>
+      </c>
+      <c r="E81">
+        <v>-0.05515119223354977</v>
+      </c>
+      <c r="F81">
+        <v>-0.01892076019532324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660020298986868</v>
+        <v>0.1653989852216406</v>
       </c>
       <c r="C82">
-        <v>-0.02656176120545927</v>
+        <v>-0.02708454550143652</v>
       </c>
       <c r="D82">
-        <v>-0.01203476500214085</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002740257618054097</v>
+      </c>
+      <c r="E82">
+        <v>-0.02877826654154121</v>
+      </c>
+      <c r="F82">
+        <v>-0.08238320131627319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06304687708371479</v>
+        <v>0.05719708916146666</v>
       </c>
       <c r="C83">
-        <v>-0.005286716324267547</v>
+        <v>-0.003231801016039307</v>
       </c>
       <c r="D83">
-        <v>-0.04253335058879596</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0483634457138606</v>
+      </c>
+      <c r="E83">
+        <v>-0.001158040460269791</v>
+      </c>
+      <c r="F83">
+        <v>0.0349552983639996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06192297844024124</v>
+        <v>0.05663074888759422</v>
       </c>
       <c r="C84">
-        <v>-0.01385010415281594</v>
+        <v>-0.01087012761068417</v>
       </c>
       <c r="D84">
-        <v>-0.06747840110289942</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07203757172846817</v>
+      </c>
+      <c r="E84">
+        <v>-0.01371542511404954</v>
+      </c>
+      <c r="F84">
+        <v>-0.01475581744279366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1386276012144411</v>
+        <v>0.1346156851446287</v>
       </c>
       <c r="C85">
-        <v>-0.03008369288428804</v>
+        <v>-0.02962706540152579</v>
       </c>
       <c r="D85">
-        <v>-0.01175615368117288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01006200845015212</v>
+      </c>
+      <c r="E85">
+        <v>-0.03690875593910706</v>
+      </c>
+      <c r="F85">
+        <v>-0.04802434235762928</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1015732505920188</v>
+        <v>0.09357530306105064</v>
       </c>
       <c r="C86">
-        <v>0.002803830474918589</v>
+        <v>0.005794079771604031</v>
       </c>
       <c r="D86">
-        <v>-0.009671742031931319</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05215072159430899</v>
+      </c>
+      <c r="E86">
+        <v>-0.2201682853544649</v>
+      </c>
+      <c r="F86">
+        <v>0.8996155705560328</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0970115652954754</v>
+        <v>0.09319299902960017</v>
       </c>
       <c r="C87">
-        <v>-0.02832227580102579</v>
+        <v>-0.01949077494840138</v>
       </c>
       <c r="D87">
-        <v>-0.07260005607484478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09584461310323153</v>
+      </c>
+      <c r="E87">
+        <v>0.05198867869154551</v>
+      </c>
+      <c r="F87">
+        <v>-0.05100106714279808</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06160485298538868</v>
+        <v>0.0606525990054569</v>
       </c>
       <c r="C88">
-        <v>-0.005300181385484815</v>
+        <v>-0.002927268065586932</v>
       </c>
       <c r="D88">
-        <v>-0.05357199622303871</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05025389692966097</v>
+      </c>
+      <c r="E88">
+        <v>-0.02506044109880992</v>
+      </c>
+      <c r="F88">
+        <v>-0.01459819669604233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1186917732610516</v>
+        <v>0.1273388713490393</v>
       </c>
       <c r="C89">
-        <v>-0.005008666668780413</v>
+        <v>-0.01394240572195963</v>
       </c>
       <c r="D89">
-        <v>0.249550885943463</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.244784640984378</v>
+      </c>
+      <c r="E89">
+        <v>0.09261208528388412</v>
+      </c>
+      <c r="F89">
+        <v>0.007990594992229556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1384733878367115</v>
+        <v>0.1514166073785976</v>
       </c>
       <c r="C90">
-        <v>-0.02436611603575565</v>
+        <v>-0.03520453425679423</v>
       </c>
       <c r="D90">
-        <v>0.2668805405552436</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2681561791248488</v>
+      </c>
+      <c r="E90">
+        <v>0.1138191337902192</v>
+      </c>
+      <c r="F90">
+        <v>0.009721288321356965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1211968755662653</v>
+        <v>0.12048573181443</v>
       </c>
       <c r="C91">
-        <v>-0.02096223541949759</v>
+        <v>-0.02115058837157645</v>
       </c>
       <c r="D91">
-        <v>0.01233847726295034</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01587225998906538</v>
+      </c>
+      <c r="E91">
+        <v>-0.05396060058788354</v>
+      </c>
+      <c r="F91">
+        <v>0.0006347560508994902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1398809388574114</v>
+        <v>0.1474836520431378</v>
       </c>
       <c r="C92">
-        <v>-0.01529079669937058</v>
+        <v>-0.02633044592687512</v>
       </c>
       <c r="D92">
-        <v>0.3019021071818315</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2913090466690474</v>
+      </c>
+      <c r="E92">
+        <v>0.102021046907731</v>
+      </c>
+      <c r="F92">
+        <v>0.01970857589487356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1414726758516988</v>
+        <v>0.152831231354753</v>
       </c>
       <c r="C93">
-        <v>-0.02084567894465818</v>
+        <v>-0.03028493249419782</v>
       </c>
       <c r="D93">
-        <v>0.268487264400785</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2647014075687821</v>
+      </c>
+      <c r="E93">
+        <v>0.07631176288652163</v>
+      </c>
+      <c r="F93">
+        <v>-0.002034921734924234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1345055958386766</v>
+        <v>0.1273050914035385</v>
       </c>
       <c r="C94">
-        <v>-0.02775386302233697</v>
+        <v>-0.02582454803806073</v>
       </c>
       <c r="D94">
-        <v>-0.04084045988592917</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04021590463327983</v>
+      </c>
+      <c r="E94">
+        <v>-0.05736777335657805</v>
+      </c>
+      <c r="F94">
+        <v>-0.0324358593144876</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.124460477590645</v>
+        <v>0.1278928107831743</v>
       </c>
       <c r="C95">
-        <v>-0.009592078181642445</v>
+        <v>-0.003819390490469595</v>
       </c>
       <c r="D95">
-        <v>-0.08886493468455595</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09876585294709311</v>
+      </c>
+      <c r="E95">
+        <v>-0.0546002541734305</v>
+      </c>
+      <c r="F95">
+        <v>-0.001539520981851964</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1235531720319817</v>
+        <v>0.1168786861710216</v>
       </c>
       <c r="C96">
-        <v>0.9865899831583291</v>
+        <v>0.9862757286572389</v>
       </c>
       <c r="D96">
-        <v>0.01666844622208115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05192144173494267</v>
+      </c>
+      <c r="E96">
+        <v>-0.05198046193934807</v>
+      </c>
+      <c r="F96">
+        <v>-0.04228613158288198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1960250049500268</v>
+        <v>0.1965306905383697</v>
       </c>
       <c r="C97">
-        <v>0.003688631540371528</v>
+        <v>0.005021451773418697</v>
       </c>
       <c r="D97">
-        <v>0.01772584843778251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02105218003019607</v>
+      </c>
+      <c r="E97">
+        <v>-0.02166701785246579</v>
+      </c>
+      <c r="F97">
+        <v>0.116434755435958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1995246981202401</v>
+        <v>0.2055297649659093</v>
       </c>
       <c r="C98">
-        <v>-0.01210062991721569</v>
+        <v>-0.007918171142067804</v>
       </c>
       <c r="D98">
-        <v>-0.01079118238665929</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01475866836812421</v>
+      </c>
+      <c r="E98">
+        <v>0.07635494583972342</v>
+      </c>
+      <c r="F98">
+        <v>0.09155191119399031</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05517822038809539</v>
+        <v>0.05557067840314677</v>
       </c>
       <c r="C99">
-        <v>0.002206742698204131</v>
+        <v>0.003968640020596768</v>
       </c>
       <c r="D99">
-        <v>-0.02894184298699276</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03866544033180953</v>
+      </c>
+      <c r="E99">
+        <v>-0.02156484925836314</v>
+      </c>
+      <c r="F99">
+        <v>-0.004466903787814947</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.142330540838876</v>
+        <v>0.1294934791850014</v>
       </c>
       <c r="C100">
-        <v>0.03881623850082751</v>
+        <v>0.05114366850418219</v>
       </c>
       <c r="D100">
-        <v>-0.3981817463229651</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3529420862891556</v>
+      </c>
+      <c r="E100">
+        <v>0.8859692442649456</v>
+      </c>
+      <c r="F100">
+        <v>0.1457246038728486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02489987483264432</v>
+        <v>0.02854062806648899</v>
       </c>
       <c r="C101">
-        <v>-0.009362887868580985</v>
+        <v>-0.008765807153787905</v>
       </c>
       <c r="D101">
-        <v>-0.02720411029303162</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03064777767796462</v>
+      </c>
+      <c r="E101">
+        <v>-0.01255685027202641</v>
+      </c>
+      <c r="F101">
+        <v>0.01410981953518202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
